--- a/biology/Zoologie/Crocodyloidea/Crocodyloidea.xlsx
+++ b/biology/Zoologie/Crocodyloidea/Crocodyloidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Crocodyloidea sont une super-famille de reptiles apparue à la fin du Crétacé et contenant la famille des Crocodylidae. Cladistiquement, ils sont définis comme comprenant Crocodylus niloticus (Crocodile du Nil) et tous les crocodiliens qui lui sont plus apparentés qu'à Alligator mississippiensis (Alligator américain)[1]. Leurs groupe frère est celui des Alligatoroidea.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Crocodyloidea sont une super-famille de reptiles apparue à la fin du Crétacé et contenant la famille des Crocodylidae. Cladistiquement, ils sont définis comme comprenant Crocodylus niloticus (Crocodile du Nil) et tous les crocodiliens qui lui sont plus apparentés qu'à Alligator mississippiensis (Alligator américain). Leurs groupe frère est celui des Alligatoroidea.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cladogramme d'après Christopher Brochu (d) (2010)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cladogramme d'après Christopher Brochu (d) (2010).
 Borealosuchus
 Pristichampsus
 Brevirostres
